--- a/App2/wiley/csv/Wiley_climate.xlsx
+++ b/App2/wiley/csv/Wiley_climate.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Keyword : </t>
   </si>
   <si>
-    <t>climate</t>
-  </si>
-  <si>
     <t xml:space="preserve">Database : </t>
   </si>
   <si>
@@ -31,7 +28,7 @@
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>2018-07-16T15:08:41.053472</t>
+    <t>2018-07-18T17:35:10.773798</t>
   </si>
   <si>
     <t>S.No</t>
@@ -73,22 +70,23 @@
     <t>1</t>
   </si>
   <si>
-    <t>https://onlinelibrary.wiley.com/doi/10.1111/1365-2435.13008</t>
-  </si>
-  <si>
-    <t>How ants acclimate: Impact of climatic conditions on the cuticular hydrocarbon profile</t>
-  </si>
-  <si>
-    <t>Functional Ecology</t>
-  </si>
-  <si>
-    <t>Volume 32, Issue 3</t>
-  </si>
-  <si>
-    <t>First published: 26 October 2017</t>
-  </si>
-  <si>
-    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/1365-2435.13008</t>
+    <t>https://onlinelibrary.wiley.com/doi/10.1002/%28SICI%291096-8628%2819960216%2967%3A1%3C103%3A%3AAID-AJMG18%3E3.0.CO%3B2-S</t>
+  </si>
+  <si>
+    <t>Positive association between a DNA sequence variant in the serotonin 2A receptor gene
+               and schizophrenia</t>
+  </si>
+  <si>
+    <t>American Journal of Medical Genetics</t>
+  </si>
+  <si>
+    <t>Volume 67, Issue 1</t>
+  </si>
+  <si>
+    <t>First published: 16 February 1996</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1002/%28SICI%291096-8628%2819960216%2967%3A1%3C103%3A%3AAID-AJMG18%3E3.0.CO%3B2-S</t>
   </si>
 </sst>
 </file>
@@ -443,85 +441,82 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>15</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>16</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
